--- a/GameConfig/gameAudio.xlsx
+++ b/GameConfig/gameAudio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6814FE2-ADB3-440C-BCF4-70747A5C3270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B15C7-658E-40CC-B1D5-5E9FC554BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,13 @@
   </si>
   <si>
     <t>Audio/Effect/Effect_Cannon_002</t>
+  </si>
+  <si>
+    <t>Audio/Effect/Bullet_Explosion_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248013</t>
   </si>
 </sst>
 </file>
@@ -401,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -441,13 +448,16 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -730,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -803,7 +813,7 @@
       <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
     </row>
@@ -823,7 +833,7 @@
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -846,36 +856,53 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>23</v>
       </c>
     </row>

--- a/GameConfig/gameAudio.xlsx
+++ b/GameConfig/gameAudio.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A2B15C7-658E-40CC-B1D5-5E9FC554BAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B5A04-FF80-4148-B0C5-511CB2B330B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,6 +162,10 @@
   </si>
   <si>
     <t>effect_248013</t>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,13 +455,13 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,7 +747,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -813,7 +817,7 @@
       <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>5</v>
       </c>
     </row>
@@ -833,7 +837,7 @@
       <c r="E4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="18"/>
     </row>
     <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
@@ -843,7 +847,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>22</v>
@@ -873,36 +877,36 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="C7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>23</v>
       </c>
     </row>

--- a/GameConfig/gameAudio.xlsx
+++ b/GameConfig/gameAudio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7B5A04-FF80-4148-B0C5-511CB2B330B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ReadMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,15 +30,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>是否循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是背景音乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBGM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_238001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm_238002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248012</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/BGM/BGM_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/BGM/BGM_002</t>
+  </si>
+  <si>
+    <t>Audio/Effect/Effect_Cannon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Audio/Effect/Effect_Cannon_002</t>
+  </si>
+  <si>
+    <t>Audio/Effect/Bullet_Explosion_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect_248013</t>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>第一行写字段注释</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>第二行写字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -48,7 +140,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="9"/>
+        <sz val="14"/>
         <color rgb="FFFF0000"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -59,7 +151,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="9"/>
+        <sz val="14"/>
         <color theme="1"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -72,107 +164,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否循环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>volume</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否是背景音乐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBGM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_238001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm_238002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_248011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_248012</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio/BGM/BGM_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio/BGM/BGM_002</t>
-  </si>
-  <si>
-    <t>Audio/Effect/Effect_Cannon_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Audio/Effect/Effect_Cannon_002</t>
-  </si>
-  <si>
-    <t>Audio/Effect/Bullet_Explosion_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effect_248013</t>
-  </si>
-  <si>
-    <t>0.5</t>
+    <t>每一行的作用是固定的不可更改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +196,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
@@ -206,16 +222,8 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -248,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -395,52 +403,38 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -449,19 +443,28 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,179 +746,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.05" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="25.88671875" style="13" customWidth="1"/>
-    <col min="3" max="5" width="15.77734375" style="13" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="25.875" style="12" customWidth="1"/>
+    <col min="3" max="5" width="15.75" style="12" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="59.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="13.75" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="B6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="13.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>23</v>
+      <c r="E8" s="14" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="89.375" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="89.375" style="18"/>
+    <col min="2" max="16384" width="89.375" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+    </row>
+    <row r="5" spans="1:1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>